--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value774.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value774.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.025140994339248</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>3.101530861842777</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>3.789362493158253</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.163165523224082</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.183184611262593</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
